--- a/Lista de Sintaxis.xlsx
+++ b/Lista de Sintaxis.xlsx
@@ -3,9 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Asignacion y declaracion" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="instrucciones de control" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Operadores" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Integrantes" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Asignacion y declaracion" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Ejemplos Asignacion y declaraci" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Instrucciones de control" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Ejemplos Instrucciones de contr" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Operadores" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,15 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+  <si>
+    <t>Integrantes</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>David Gamaliel Arcos Bravo</t>
+  </si>
+  <si>
+    <t>Luis Fernando Caro Reyna</t>
+  </si>
   <si>
     <t>PALABRA RESERVADA</t>
   </si>
   <si>
+    <t>EQUIVALENTE</t>
+  </si>
+  <si>
     <t>Declare</t>
   </si>
   <si>
-    <t>"string", "int", "char", etc</t>
+    <t>"string", "int", "float", "bool"</t>
   </si>
   <si>
     <t>Assign</t>
@@ -33,37 +51,19 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>"delete"</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>"+="</t>
-  </si>
-  <si>
-    <t>Subtract</t>
-  </si>
-  <si>
-    <t>"-="</t>
+    <t>"del"</t>
   </si>
   <si>
     <t>Read</t>
   </si>
   <si>
-    <t>"cin"</t>
+    <t>"input"</t>
   </si>
   <si>
     <t>Print</t>
   </si>
   <si>
-    <t>"cout"</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>"return"</t>
+    <t>"print"</t>
   </si>
   <si>
     <t>VALORES RESERVADOS</t>
@@ -84,25 +84,46 @@
     <t>Decimal</t>
   </si>
   <si>
-    <t>"double, float"</t>
-  </si>
-  <si>
-    <t>Char</t>
-  </si>
-  <si>
-    <t>"char"</t>
-  </si>
-  <si>
-    <t>LOL</t>
-  </si>
-  <si>
-    <t>"null"</t>
-  </si>
-  <si>
-    <t>Void</t>
-  </si>
-  <si>
-    <t>"void"</t>
+    <t>"float"</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>"bool"</t>
+  </si>
+  <si>
+    <t>Ejemplo 1</t>
+  </si>
+  <si>
+    <t>Declare Integer x, y = 1, String s = "Hola"</t>
+  </si>
+  <si>
+    <t>Declare Bool b, Integer x=1, z=1, Decimal d = 0.1</t>
+  </si>
+  <si>
+    <t>Assign x = 1, s = s + " Mundo"</t>
+  </si>
+  <si>
+    <t>Assign t = 10  , d=10.2</t>
+  </si>
+  <si>
+    <t>Delete x, s, y</t>
+  </si>
+  <si>
+    <t>Delete b,x,z,  d</t>
+  </si>
+  <si>
+    <t>Read x,y,s</t>
+  </si>
+  <si>
+    <t>Read b , x, z,d</t>
+  </si>
+  <si>
+    <t>Print s + x</t>
+  </si>
+  <si>
+    <t>Print "Hola mi edad es " + x</t>
   </si>
   <si>
     <t>For</t>
@@ -129,10 +150,10 @@
     <t>"else"</t>
   </si>
   <si>
-    <t>Else if</t>
-  </si>
-  <si>
-    <t>"else if"</t>
+    <t>Elseif</t>
+  </si>
+  <si>
+    <t>"elif"</t>
   </si>
   <si>
     <t>Break</t>
@@ -141,10 +162,22 @@
     <t>"break"</t>
   </si>
   <si>
-    <t>Do While</t>
-  </si>
-  <si>
-    <t>"do while"</t>
+    <t>EJEMPLO</t>
+  </si>
+  <si>
+    <t>For(Declare int i = 0;i&lt;10;Assign i=i+1)</t>
+  </si>
+  <si>
+    <t>While(i&lt;10)</t>
+  </si>
+  <si>
+    <t>If(a&lt;10)</t>
+  </si>
+  <si>
+    <t>Elseif(i&lt;10)</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
   </si>
   <si>
     <t>Aritmeticos</t>
@@ -153,52 +186,91 @@
     <t>"+"</t>
   </si>
   <si>
+    <t>A + B</t>
+  </si>
+  <si>
     <t>"-"</t>
   </si>
   <si>
+    <t>A - B</t>
+  </si>
+  <si>
     <t>"*"</t>
   </si>
   <si>
+    <t>A * B</t>
+  </si>
+  <si>
     <t>"/"</t>
   </si>
   <si>
+    <t>A / B</t>
+  </si>
+  <si>
     <t>"%"</t>
   </si>
   <si>
+    <t>A % B</t>
+  </si>
+  <si>
     <t>Relacionales</t>
   </si>
   <si>
+    <t>"&gt;"</t>
+  </si>
+  <si>
+    <t>A &gt; B</t>
+  </si>
+  <si>
     <t>"&lt;"</t>
   </si>
   <si>
-    <t>"&gt;"</t>
+    <t>A &lt; B</t>
   </si>
   <si>
     <t>"&gt;="</t>
   </si>
   <si>
+    <t>A &gt;= B</t>
+  </si>
+  <si>
     <t>"&lt;="</t>
   </si>
   <si>
+    <t>A &lt;= B</t>
+  </si>
+  <si>
     <t>"=="</t>
   </si>
   <si>
+    <t>A == B</t>
+  </si>
+  <si>
     <t>"!="</t>
   </si>
   <si>
+    <t>A != B</t>
+  </si>
+  <si>
     <t>Logicos</t>
   </si>
   <si>
     <t>AND</t>
   </si>
   <si>
+    <t>A AND B</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
-    <t>XOR</t>
+    <t>A OR B</t>
   </si>
   <si>
     <t>NOT</t>
+  </si>
+  <si>
+    <t>NOT A</t>
   </si>
 </sst>
 </file>
@@ -258,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -272,12 +344,15 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -297,6 +372,18 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -498,6 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -512,128 +600,81 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>223826.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+      <c r="B3" s="2">
+        <v>227782.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2"/>
@@ -667,12 +708,355 @@
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
     </row>
+    <row r="26">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+    </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="36.86"/>
+    <col customWidth="1" min="2" max="2" width="31.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="36.86"/>
+    <col customWidth="1" min="2" max="3" width="50.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -688,68 +1072,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2"/>
@@ -806,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -817,153 +1200,314 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="36.86"/>
+    <col customWidth="1" min="2" max="2" width="38.57"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="36.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="A10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
+      <c r="A16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>58</v>
+      <c r="A18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Lista de Sintaxis.xlsx
+++ b/Lista de Sintaxis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
   <si>
     <t>Integrantes</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>"print"</t>
+  </si>
+  <si>
+    <t>ShowVars</t>
+  </si>
+  <si>
+    <t>"%who"</t>
   </si>
   <si>
     <t>VALORES RESERVADOS</t>
@@ -796,23 +802,23 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -840,8 +846,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2"/>
@@ -878,6 +888,10 @@
     <row r="22">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -907,10 +921,10 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
@@ -918,10 +932,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -929,10 +943,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -940,10 +954,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -951,10 +965,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -962,16 +976,22 @@
         <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1"/>
@@ -1081,53 +1101,53 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -1208,55 +1228,55 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1296,6 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1310,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -1321,55 +1342,55 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -1380,61 +1401,61 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
@@ -1443,34 +1464,34 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -1510,6 +1531,9 @@
       <c r="B30" s="2"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lista de Sintaxis.xlsx
+++ b/Lista de Sintaxis.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisf\Documents\Programas\3ro\EsAlg2\AlmostPython\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8CD085-4C72-4835-81BB-14D9E171E17A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Integrantes" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Asignacion y declaracion" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Ejemplos Asignacion y declaraci" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Instrucciones de control" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Ejemplos Instrucciones de contr" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Operadores" sheetId="6" r:id="rId9"/>
+    <sheet name="Integrantes" sheetId="1" r:id="rId1"/>
+    <sheet name="Asignacion y declaracion" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejemplos Asignacion y declaraci" sheetId="3" r:id="rId3"/>
+    <sheet name="Instrucciones de control" sheetId="4" r:id="rId4"/>
+    <sheet name="Ejemplos Instrucciones de contr" sheetId="5" r:id="rId5"/>
+    <sheet name="Operadores" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>Integrantes</t>
   </si>
@@ -213,12 +222,6 @@
     <t>A / B</t>
   </si>
   <si>
-    <t>"%"</t>
-  </si>
-  <si>
-    <t>A % B</t>
-  </si>
-  <si>
     <t>Relacionales</t>
   </si>
   <si>
@@ -264,56 +267,64 @@
     <t>AND</t>
   </si>
   <si>
-    <t>A AND B</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
-    <t>A OR B</t>
-  </si>
-  <si>
     <t>NOT</t>
   </si>
   <si>
-    <t>NOT A</t>
+    <t>A &amp;&amp; B</t>
+  </si>
+  <si>
+    <t>A || B</t>
+  </si>
+  <si>
+    <t>!A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -321,7 +332,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -331,70 +342,56 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -584,25 +581,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.86"/>
-    <col customWidth="1" min="2" max="2" width="31.43"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,150 +610,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>223826.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>223826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>227782.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>227782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.86"/>
-    <col customWidth="1" min="2" max="2" width="31.43"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -769,7 +769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -777,7 +777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -785,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -793,7 +793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -809,11 +809,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -821,7 +821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -829,7 +829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -837,7 +837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -845,7 +845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -853,70 +853,70 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.86"/>
-    <col customWidth="1" min="2" max="3" width="50.0"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="3" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,7 +927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -938,7 +938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -949,7 +949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -960,7 +960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -971,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -982,7 +982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -993,104 +993,104 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.86"/>
-    <col customWidth="1" min="2" max="2" width="31.43"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -1150,80 +1150,81 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
     </row>
-    <row r="22">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="36.86"/>
-    <col customWidth="1" min="2" max="2" width="38.57"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1271,7 +1272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
@@ -1279,54 +1280,57 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="36.86"/>
+    <col min="1" max="2" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1335,12 +1339,12 @@
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>56</v>
       </c>
@@ -1349,7 +1353,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>57</v>
       </c>
@@ -1358,7 +1362,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>59</v>
       </c>
@@ -1367,7 +1371,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
@@ -1376,7 +1380,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>63</v>
       </c>
@@ -1385,40 +1389,39 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>70</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>72</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
@@ -1450,90 +1453,82 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Lista de Sintaxis.xlsx
+++ b/Lista de Sintaxis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t>Integrantes</t>
   </si>
@@ -126,10 +126,10 @@
     <t>Read b , x, z,d</t>
   </si>
   <si>
-    <t>Print s + x</t>
-  </si>
-  <si>
-    <t>Print "Hola mi edad es " + x</t>
+    <t>Print s , x</t>
+  </si>
+  <si>
+    <t>Print "Hola mi edad es ",x</t>
   </si>
   <si>
     <t>For</t>
@@ -213,12 +213,6 @@
     <t>A / B</t>
   </si>
   <si>
-    <t>"%"</t>
-  </si>
-  <si>
-    <t>A % B</t>
-  </si>
-  <si>
     <t>Relacionales</t>
   </si>
   <si>
@@ -264,26 +258,26 @@
     <t>AND</t>
   </si>
   <si>
-    <t>A AND B</t>
+    <t>A &amp;&amp; B</t>
   </si>
   <si>
     <t>OR</t>
   </si>
   <si>
-    <t>A OR B</t>
+    <t>A || B</t>
   </si>
   <si>
     <t>NOT</t>
   </si>
   <si>
-    <t>NOT A</t>
+    <t>!A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -306,8 +300,18 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
     </font>
     <font>
       <b/>
@@ -336,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -350,12 +354,18 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -805,7 +815,7 @@
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -975,10 +985,10 @@
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1097,7 +1107,7 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1106,7 +1116,7 @@
       <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1115,7 +1125,7 @@
       <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1124,7 +1134,7 @@
       <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -1213,6 +1223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1227,7 +1238,7 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1235,7 +1246,7 @@
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1243,7 +1254,7 @@
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1251,7 +1262,7 @@
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1259,7 +1270,7 @@
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1267,7 +1278,7 @@
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1275,7 +1286,7 @@
       <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1308,6 +1319,9 @@
       <c r="A16" s="2"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1330,24 +1344,24 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1356,7 +1370,7 @@
       <c r="B4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -1365,7 +1379,7 @@
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1374,7 +1388,7 @@
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -1383,40 +1397,39 @@
       <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -1451,22 +1464,22 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1487,12 +1500,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
@@ -1525,10 +1534,6 @@
     <row r="29">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
